--- a/Clases de Equivalencia.xlsx
+++ b/Clases de Equivalencia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosandresramirez/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosandresramirez/Desktop/Laboratorio8-CVDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F8C6EA6-DD8E-DF4D-B3C0-B1874070E276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF916402-72C3-F440-BA8B-548502576942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{EAFB33F6-E6F1-D049-BD05-76F006C150B3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{EAFB33F6-E6F1-D049-BD05-76F006C150B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="65">
   <si>
     <t xml:space="preserve">Numero </t>
   </si>
@@ -158,9 +158,6 @@
     <t>Modificar tarifa</t>
   </si>
   <si>
-    <t>0 &gt; T</t>
-  </si>
-  <si>
     <t>0 &lt; T</t>
   </si>
   <si>
@@ -194,12 +191,6 @@
     <t>Encontrado</t>
   </si>
   <si>
-    <t>D &lt; 0</t>
-  </si>
-  <si>
-    <t>Valido</t>
-  </si>
-  <si>
     <t xml:space="preserve">Valido </t>
   </si>
   <si>
@@ -212,9 +203,6 @@
     <t>Agregar Alquiler</t>
   </si>
   <si>
-    <t>consultarClienteConItem</t>
-  </si>
-  <si>
     <t>ID Item</t>
   </si>
   <si>
@@ -233,13 +221,13 @@
     <t xml:space="preserve">Numero días </t>
   </si>
   <si>
-    <t xml:space="preserve">D &lt; 0 </t>
-  </si>
-  <si>
     <t>No Existente</t>
   </si>
   <si>
     <t>Retorne Costo de Alquiler</t>
+  </si>
+  <si>
+    <t>Registrar Item</t>
   </si>
 </sst>
 </file>
@@ -348,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -377,6 +365,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -693,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF47740-D857-7348-859D-FF8436E1D4E2}">
-  <dimension ref="C2:V30"/>
+  <dimension ref="C2:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" topLeftCell="Q5" zoomScale="131" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -725,9 +716,7 @@
       <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="S2" s="1"/>
     </row>
     <row r="3" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
@@ -751,15 +740,6 @@
       <c r="L3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C4" s="3">
@@ -783,18 +763,13 @@
       <c r="L4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="6"/>
+      <c r="M4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="12"/>
       <c r="O4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" s="4"/>
     </row>
     <row r="5" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C5" s="3">
@@ -823,15 +798,6 @@
         <v>38</v>
       </c>
       <c r="O5" s="3"/>
-      <c r="S5" s="3">
-        <v>1</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="6" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C6" s="3">
@@ -850,19 +816,13 @@
         <v>25</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S6" s="3">
-        <v>2</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>14</v>
+      <c r="S6" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="3:22" x14ac:dyDescent="0.2">
@@ -870,27 +830,47 @@
         <v>2</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>41</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" s="12"/>
+      <c r="V7" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="S8" s="3"/>
+      <c r="T8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>1</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="L8" s="3">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="3:22" x14ac:dyDescent="0.2">
@@ -900,8 +880,20 @@
       <c r="G10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>61</v>
+      <c r="L10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" s="3">
+        <v>2</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="3:22" x14ac:dyDescent="0.2">
@@ -917,24 +909,20 @@
       <c r="G11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6"/>
+      <c r="H11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12"/>
       <c r="J11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="U11" s="6"/>
-      <c r="V11" s="5" t="s">
+      <c r="L11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -956,23 +944,11 @@
         <v>24</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="L12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V12" s="3"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C13" s="3">
@@ -996,22 +972,17 @@
       <c r="J13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="S13" s="3">
-        <v>1</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>4</v>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="3:22" x14ac:dyDescent="0.2">
@@ -1028,25 +999,23 @@
         <v>4</v>
       </c>
       <c r="L14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S14" s="3">
-        <v>2</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" s="12"/>
+      <c r="V14" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="3:22" x14ac:dyDescent="0.2">
@@ -1062,15 +1031,14 @@
       <c r="J15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="3">
-        <v>2</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V15" s="3"/>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.2">
       <c r="G16" s="3">
@@ -1085,13 +1053,34 @@
       <c r="J16" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="S16" s="3">
+        <v>1</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>64</v>
+      <c r="S17" s="3">
+        <v>2</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.2">
@@ -1104,15 +1093,8 @@
       <c r="E18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="U18" s="6"/>
-      <c r="V18" s="5" t="s">
-        <v>2</v>
+      <c r="L18" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="3:22" x14ac:dyDescent="0.2">
@@ -1128,17 +1110,15 @@
       <c r="G19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="V19" s="3"/>
+      <c r="L19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="G20" s="2" t="s">
@@ -1150,26 +1130,14 @@
       <c r="I20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S20" s="3">
-        <v>1</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="3:22" x14ac:dyDescent="0.2">
@@ -1181,45 +1149,12 @@
       </c>
       <c r="I21" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S21" s="3">
-        <v>2</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S22" s="3">
-        <v>2</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="2" t="s">
@@ -1233,6 +1168,9 @@
       </c>
       <c r="G23" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="3:22" x14ac:dyDescent="0.2">
@@ -1250,8 +1188,17 @@
       <c r="I24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>48</v>
+      <c r="L24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="3:22" x14ac:dyDescent="0.2">
@@ -1259,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
@@ -1269,25 +1216,27 @@
         <v>5</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="L25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="3">
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>32</v>
@@ -1301,20 +1250,24 @@
       <c r="I26" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="N26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q26" s="3"/>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="G27" s="9">
@@ -1324,19 +1277,19 @@
         <v>36</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="L27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>53</v>
@@ -1347,71 +1300,30 @@
     </row>
     <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="L28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="L29" s="3">
-        <v>3</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="L30" s="3">
-        <v>4</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>58</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T14:U14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
